--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
@@ -1762,6 +1762,9 @@
       <c r="H45">
         <v>-0.07991706325214298</v>
       </c>
+      <c r="I45">
+        <v>0.535526637811788</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -1785,6 +1788,9 @@
       <c r="G46">
         <v>-0.01213374733938011</v>
       </c>
+      <c r="H46">
+        <v>0.5766911554241068</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -1805,6 +1811,9 @@
       <c r="F47">
         <v>0.03212331069211072</v>
       </c>
+      <c r="G47">
+        <v>0.6272238950261231</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -1822,8 +1831,11 @@
       <c r="E48">
         <v>0.04831977022499523</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1836,8 +1848,11 @@
       <c r="D49">
         <v>-0.09868022977500479</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1847,18 +1862,27 @@
       <c r="C50">
         <v>-0.2119161209897164</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
         <v>-0.1722430723603913</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.32386998960715</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
@@ -1768,6 +1768,9 @@
       <c r="I45">
         <v>0.535526637811788</v>
       </c>
+      <c r="J45">
+        <v>0.2150495036779461</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -1794,6 +1797,9 @@
       <c r="H46">
         <v>0.5766911554241068</v>
       </c>
+      <c r="I46">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -1817,6 +1823,9 @@
       <c r="G47">
         <v>0.6272238950261231</v>
       </c>
+      <c r="H47">
+        <v>0.3087982760018804</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -1837,8 +1846,11 @@
       <c r="F48">
         <v>0.6666911554241067</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1854,8 +1866,11 @@
       <c r="E49">
         <v>0.6966911554241066</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1868,8 +1883,11 @@
       <c r="D50">
         <v>0.4271648845785767</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1879,18 +1897,27 @@
       <c r="C51">
         <v>0.4775315349050862</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
         <v>0.32386998960715</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_1_Output_Data/4_ifo_qoq_error_series/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDAA3B4D2B4D2C4CA5E5CB572D54549FA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB266DC0-3170-44AA-9D99-E380FF7DF87A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,17 +271,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +572,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,12 +614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1839449541284232</v>
+        <v>0.18394495412842321</v>
       </c>
       <c r="C2">
         <v>-1.303044651843698</v>
@@ -609,13 +628,13 @@
         <v>0.7957634757526395</v>
       </c>
       <c r="E2">
-        <v>0.8744122965642023</v>
+        <v>0.87441229656420227</v>
       </c>
       <c r="F2">
         <v>2.507941123023818</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,25 +642,25 @@
         <v>0.1457634757526623</v>
       </c>
       <c r="C3">
-        <v>0.7744122965641937</v>
+        <v>0.77441229656419375</v>
       </c>
       <c r="D3">
-        <v>2.467941123023811</v>
+        <v>2.4679411230238109</v>
       </c>
       <c r="E3">
-        <v>4.12576201096553</v>
+        <v>4.1257620109655297</v>
       </c>
       <c r="F3">
-        <v>-0.01752140864044649</v>
+        <v>-1.752140864044649E-2</v>
       </c>
       <c r="G3">
-        <v>-0.4530390842034671</v>
+        <v>-0.45303908420346711</v>
       </c>
       <c r="H3">
         <v>0.2404915850527668</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -649,19 +668,19 @@
         <v>1.20794112302382</v>
       </c>
       <c r="C4">
-        <v>3.150762010965521</v>
+        <v>3.1507620109655212</v>
       </c>
       <c r="D4">
-        <v>-0.7175214086404351</v>
+        <v>-0.71752140864043512</v>
       </c>
       <c r="E4">
-        <v>-1.028039084203484</v>
+        <v>-1.0280390842034841</v>
       </c>
       <c r="F4">
-        <v>-0.2595084149472189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.25950841494721888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,42 +691,42 @@
         <v>-0.5280390842034699</v>
       </c>
       <c r="D5">
-        <v>-0.3095084149472304</v>
+        <v>-0.30950841494723041</v>
       </c>
       <c r="E5">
-        <v>-0.4613515565679706</v>
+        <v>-0.46135155656797061</v>
       </c>
       <c r="F5">
-        <v>-2.182091798344627</v>
+        <v>-2.1820917983446271</v>
       </c>
       <c r="G5">
-        <v>-0.4480161645848688</v>
+        <v>-0.44801616458486881</v>
       </c>
       <c r="H5">
-        <v>-0.1147970816233392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.11479708162333919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.4904915850527526</v>
+        <v>0.49049158505275259</v>
       </c>
       <c r="C6">
-        <v>0.2586484434320426</v>
+        <v>0.25864844343204257</v>
       </c>
       <c r="D6">
         <v>-1.982091798344624</v>
       </c>
       <c r="E6">
-        <v>-0.498016164584866</v>
+        <v>-0.49801616458486597</v>
       </c>
       <c r="F6">
-        <v>-0.06479708162335629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-6.479708162335629E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -718,114 +737,114 @@
         <v>-0.198016164584883</v>
       </c>
       <c r="D7">
-        <v>-0.06479708162335629</v>
+        <v>-6.479708162335629E-2</v>
       </c>
       <c r="E7">
         <v>-1.199182264219526</v>
       </c>
       <c r="F7">
-        <v>0.2057776962582608</v>
+        <v>0.20577769625826081</v>
       </c>
       <c r="G7">
-        <v>-0.1530181086519004</v>
+        <v>-0.15301810865190041</v>
       </c>
       <c r="H7">
-        <v>0.5818677821224053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.58186778212240531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.4352029183766609</v>
+        <v>0.43520291837666092</v>
       </c>
       <c r="C8">
-        <v>-1.199182264219509</v>
+        <v>-1.1991822642195089</v>
       </c>
       <c r="D8">
-        <v>0.280777696258258</v>
+        <v>0.28077769625825799</v>
       </c>
       <c r="E8">
-        <v>-0.00301810865190888</v>
+        <v>-3.01810865190888E-3</v>
       </c>
       <c r="F8">
-        <v>0.6818677821223996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.68186778212239962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.280777696258258</v>
+        <v>0.28077769625825799</v>
       </c>
       <c r="C9">
-        <v>-0.00301810865190888</v>
+        <v>-3.01810865190888E-3</v>
       </c>
       <c r="D9">
         <v>0.7818677821223996</v>
       </c>
       <c r="E9">
-        <v>0.08984239774072844</v>
+        <v>8.9842397740728441E-2</v>
       </c>
       <c r="F9">
-        <v>0.3292907417433573</v>
+        <v>0.32929074174335732</v>
       </c>
       <c r="G9">
-        <v>0.366018718502528</v>
+        <v>0.36601871850252798</v>
       </c>
       <c r="H9">
-        <v>1.192512792889843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1.1925127928898429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01813221787760042</v>
+        <v>-1.8132217877600419E-2</v>
       </c>
       <c r="C10">
-        <v>-0.4101576022592716</v>
+        <v>-0.41015760225927161</v>
       </c>
       <c r="D10">
-        <v>-0.0707092582566427</v>
+        <v>-7.0709258256642704E-2</v>
       </c>
       <c r="E10">
-        <v>0.066018718502528</v>
+        <v>6.6018718502527995E-2</v>
       </c>
       <c r="F10">
-        <v>0.8925127928898435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.89251279288984353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.1707092582566427</v>
+        <v>-0.17070925825664271</v>
       </c>
       <c r="C11">
-        <v>-0.133981281497472</v>
+        <v>-0.13398128149747199</v>
       </c>
       <c r="D11">
-        <v>0.8925127928898435</v>
+        <v>0.89251279288984353</v>
       </c>
       <c r="E11">
-        <v>0.3367145827682783</v>
+        <v>0.33671458276827831</v>
       </c>
       <c r="F11">
-        <v>-0.3214356569573426</v>
+        <v>-0.32143565695734261</v>
       </c>
       <c r="G11">
-        <v>0.1776792908944405</v>
+        <v>0.17767929089444051</v>
       </c>
       <c r="H11">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,16 +855,16 @@
         <v>0.1367145827682783</v>
       </c>
       <c r="D12">
-        <v>-0.4214356569573426</v>
+        <v>-0.42143565695734259</v>
       </c>
       <c r="E12">
-        <v>0.07767929089444053</v>
+        <v>7.7679290894440534E-2</v>
       </c>
       <c r="F12">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -853,96 +872,96 @@
         <v>0.1785643430426489</v>
       </c>
       <c r="C13">
-        <v>0.09767929089444222</v>
+        <v>9.7679290894442217E-2</v>
       </c>
       <c r="D13">
-        <v>0.0162427487728688</v>
+        <v>1.6242748772868802E-2</v>
       </c>
       <c r="E13">
-        <v>-0.4179231863442348</v>
+        <v>-0.41792318634423481</v>
       </c>
       <c r="F13">
         <v>0.6108782057348251</v>
       </c>
       <c r="G13">
-        <v>0.4337623012868961</v>
+        <v>0.43376230128689608</v>
       </c>
       <c r="H13">
-        <v>-0.1996974281391924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-0.19969742813919239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0837572512271369</v>
+        <v>-8.3757251227136897E-2</v>
       </c>
       <c r="C14">
-        <v>-0.3179231863442404</v>
+        <v>-0.31792318634424038</v>
       </c>
       <c r="D14">
-        <v>0.6608782057348365</v>
+        <v>0.66087820573483647</v>
       </c>
       <c r="E14">
-        <v>0.5337623012869103</v>
+        <v>0.53376230128691027</v>
       </c>
       <c r="F14">
-        <v>-0.09969742813917826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>-9.9697428139178257E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4608782057348194</v>
+        <v>0.46087820573481941</v>
       </c>
       <c r="C15">
-        <v>0.333762301286916</v>
+        <v>0.33376230128691597</v>
       </c>
       <c r="D15">
-        <v>-0.2496974281391897</v>
+        <v>-0.24969742813918969</v>
       </c>
       <c r="E15">
-        <v>0.2476995305164363</v>
+        <v>0.24769953051643631</v>
       </c>
       <c r="F15">
-        <v>0.08136257582828943</v>
+        <v>8.136257582828943E-2</v>
       </c>
       <c r="G15">
-        <v>0.2040735922691153</v>
+        <v>0.20407359226911531</v>
       </c>
       <c r="H15">
-        <v>0.2513073288242555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.25130732882425549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.4996974281391754</v>
+        <v>-0.49969742813917539</v>
       </c>
       <c r="C16">
-        <v>0.1476995305164278</v>
+        <v>0.14769953051642781</v>
       </c>
       <c r="D16">
-        <v>-0.0186374241717191</v>
+        <v>-1.86374241717191E-2</v>
       </c>
       <c r="E16">
         <v>0.1040735922691067</v>
       </c>
       <c r="F16">
-        <v>0.151307328824247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.15130732882424699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.1813625758282837</v>
+        <v>0.18136257582828369</v>
       </c>
       <c r="C17">
         <v>0.1040735922691067</v>
@@ -951,90 +970,90 @@
         <v>0.131307328824251</v>
       </c>
       <c r="E17">
-        <v>-0.2653114026982006</v>
+        <v>-0.26531140269820058</v>
       </c>
       <c r="F17">
-        <v>-0.01125936757448054</v>
+        <v>-1.1259367574480541E-2</v>
       </c>
       <c r="G17">
         <v>0.2088650222990921</v>
       </c>
       <c r="H17">
-        <v>-0.0269234262875761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>-2.6923426287576099E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2013073288242442</v>
+        <v>0.20130732882424421</v>
       </c>
       <c r="C18">
-        <v>-0.216311402698194</v>
+        <v>-0.21631140269819399</v>
       </c>
       <c r="D18">
-        <v>0.03774063242552606</v>
+        <v>3.7740632425526062E-2</v>
       </c>
       <c r="E18">
-        <v>0.2578650222990987</v>
+        <v>0.25786502229909869</v>
       </c>
       <c r="F18">
-        <v>0.02207657371243049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>2.2076573712430492E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.07125936757448281</v>
+        <v>-7.1259367574482813E-2</v>
       </c>
       <c r="C19">
-        <v>0.2488650222990841</v>
+        <v>0.24886502229908411</v>
       </c>
       <c r="D19">
-        <v>0.01307657371241594</v>
+        <v>1.307657371241594E-2</v>
       </c>
       <c r="E19">
-        <v>-0.1258961837583767</v>
+        <v>-0.12589618375837669</v>
       </c>
       <c r="F19">
-        <v>-0.1364567140176977</v>
+        <v>-0.13645671401769771</v>
       </c>
       <c r="G19">
-        <v>-0.3441758241758278</v>
+        <v>-0.34417582417582782</v>
       </c>
       <c r="H19">
         <v>-0.126966924700923</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.02307657371240679</v>
+        <v>2.3076573712406789E-2</v>
       </c>
       <c r="C20">
         <v>-0.2058961837583608</v>
       </c>
       <c r="D20">
-        <v>-0.2164567140176819</v>
+        <v>-0.21645671401768191</v>
       </c>
       <c r="E20">
         <v>-0.4241758241758119</v>
       </c>
       <c r="F20">
-        <v>-0.2069669247009072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-0.20696692470090719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0835432859823011</v>
+        <v>8.3543285982301096E-2</v>
       </c>
       <c r="C21">
         <v>-0.2241758241758233</v>
@@ -1046,213 +1065,213 @@
         <v>0.1527192445571372</v>
       </c>
       <c r="F21">
-        <v>-0.00158488927486683</v>
+        <v>-1.58488927486683E-3</v>
       </c>
       <c r="G21">
-        <v>0.6488415319443164</v>
+        <v>0.64884153194431637</v>
       </c>
       <c r="H21">
         <v>0.4326764833261072</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05696692470090148</v>
+        <v>-5.6966924700901478E-2</v>
       </c>
       <c r="C22">
-        <v>0.2027192445571344</v>
+        <v>0.20271924455713439</v>
       </c>
       <c r="D22">
-        <v>0.04841511072513038</v>
+        <v>4.8415110725130377E-2</v>
       </c>
       <c r="E22">
-        <v>0.6988415319443135</v>
+        <v>0.69884153194431353</v>
       </c>
       <c r="F22">
-        <v>0.4826764833261045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>0.48267648332610452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.4027192445571373</v>
+        <v>0.40271924455713731</v>
       </c>
       <c r="C23">
-        <v>0.1634151107251537</v>
+        <v>0.16341511072515369</v>
       </c>
       <c r="D23">
-        <v>0.7478415319443343</v>
+        <v>0.74784153194433434</v>
       </c>
       <c r="E23">
-        <v>0.4826764833261045</v>
+        <v>0.48267648332610452</v>
       </c>
       <c r="F23">
         <v>0.1756473542911566</v>
       </c>
       <c r="G23">
-        <v>0.5746895714685679</v>
+        <v>0.57468957146856792</v>
       </c>
       <c r="H23">
-        <v>0.4158406583130553</v>
+        <v>0.41584065831305528</v>
       </c>
       <c r="I23">
-        <v>0.4720044792832994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.47200447928329942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.1515848892748725</v>
+        <v>-0.15158488927487249</v>
       </c>
       <c r="C24">
-        <v>0.5988415319443334</v>
+        <v>0.59884153194433343</v>
       </c>
       <c r="D24">
-        <v>0.3826764833261244</v>
+        <v>0.38267648332612442</v>
       </c>
       <c r="E24">
         <v>0.1246473542911689</v>
       </c>
       <c r="F24">
-        <v>0.5746895714685679</v>
+        <v>0.57468957146856792</v>
       </c>
       <c r="G24">
-        <v>0.3648406583130818</v>
+        <v>0.36484065831308182</v>
       </c>
       <c r="H24">
-        <v>0.4210044792833259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.42100447928332591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.6988415319442993</v>
+        <v>0.69884153194429932</v>
       </c>
       <c r="C25">
-        <v>0.4826764833261045</v>
+        <v>0.48267648332610452</v>
       </c>
       <c r="D25">
         <v>0.1246473542911689</v>
       </c>
       <c r="E25">
-        <v>0.5746895714685679</v>
+        <v>0.57468957146856792</v>
       </c>
       <c r="F25">
-        <v>0.3648406583130818</v>
+        <v>0.36484065831308182</v>
       </c>
       <c r="G25">
-        <v>0.3220044792833222</v>
+        <v>0.32200447928332221</v>
       </c>
       <c r="H25">
-        <v>2.521807318894689</v>
+        <v>2.5218073188946888</v>
       </c>
       <c r="I25">
-        <v>9.990957649751982</v>
+        <v>9.9909576497519819</v>
       </c>
       <c r="J25">
-        <v>-8.180304150385487</v>
+        <v>-8.1803041503854867</v>
       </c>
       <c r="K25">
-        <v>-0.04063260340633762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>-4.063260340633762E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.1826764833261187</v>
+        <v>0.18267648332611869</v>
       </c>
       <c r="C26">
-        <v>-0.02435264570883766</v>
+        <v>-2.4352645708837661E-2</v>
       </c>
       <c r="D26">
-        <v>0.4746895714685821</v>
+        <v>0.47468957146858209</v>
       </c>
       <c r="E26">
-        <v>0.2158406583130695</v>
+        <v>0.21584065831306951</v>
       </c>
       <c r="F26">
-        <v>0.2720044792833136</v>
+        <v>0.27200447928331362</v>
       </c>
       <c r="G26">
-        <v>2.521807318894706</v>
+        <v>2.5218073188947061</v>
       </c>
       <c r="H26">
-        <v>9.990957649752</v>
+        <v>9.9909576497519996</v>
       </c>
       <c r="I26">
         <v>-8.180304150385469</v>
       </c>
       <c r="J26">
-        <v>-0.04063260340632052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>-4.0632603406320522E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.3243526457088434</v>
+        <v>-0.32435264570884342</v>
       </c>
       <c r="C27">
-        <v>0.374689571468565</v>
+        <v>0.37468957146856502</v>
       </c>
       <c r="D27">
-        <v>0.2658406583130781</v>
+        <v>0.26584065831307813</v>
       </c>
       <c r="E27">
-        <v>0.3220044792833222</v>
+        <v>0.32200447928332221</v>
       </c>
       <c r="F27">
-        <v>2.571807318894714</v>
+        <v>2.5718073188947139</v>
       </c>
       <c r="G27">
-        <v>10.04095764975201</v>
+        <v>10.040957649752009</v>
       </c>
       <c r="H27">
-        <v>-8.130304150385461</v>
+        <v>-8.1303041503854612</v>
       </c>
       <c r="I27">
-        <v>0.009367396593688015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>9.3673965936880155E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.02531042853141789</v>
+        <v>-2.5310428531417892E-2</v>
       </c>
       <c r="C28">
-        <v>0.2158406583130695</v>
+        <v>0.21584065831306951</v>
       </c>
       <c r="D28">
-        <v>0.2720044792833136</v>
+        <v>0.27200447928331362</v>
       </c>
       <c r="E28">
-        <v>2.521807318894706</v>
+        <v>2.5218073188947061</v>
       </c>
       <c r="F28">
-        <v>9.990957649752</v>
+        <v>9.9909576497519996</v>
       </c>
       <c r="G28">
         <v>-8.180304150385469</v>
       </c>
       <c r="H28">
-        <v>-0.04063260340632052</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-4.0632603406320522E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1260,86 +1279,86 @@
         <v>-0.1841593416869248</v>
       </c>
       <c r="C29">
-        <v>0.07200447928330793</v>
+        <v>7.2004479283307929E-2</v>
       </c>
       <c r="D29">
-        <v>2.471807318894706</v>
+        <v>2.4718073188947058</v>
       </c>
       <c r="E29">
-        <v>10.039957649752</v>
+        <v>10.039957649751999</v>
       </c>
       <c r="F29">
-        <v>-8.131304150385466</v>
+        <v>-8.1313041503854659</v>
       </c>
       <c r="G29">
-        <v>0.008367396593683296</v>
+        <v>8.3673965936832961E-3</v>
       </c>
       <c r="H29">
-        <v>2.155937868393076</v>
+        <v>2.1559378683930759</v>
       </c>
       <c r="I29">
         <v>-1.284092118130254</v>
       </c>
       <c r="J29">
-        <v>-1.345266296544455</v>
+        <v>-1.3452662965444551</v>
       </c>
       <c r="K29">
-        <v>0.6961896406117992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.69618964061179922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.05200447928335454</v>
+        <v>5.2004479283354541E-2</v>
       </c>
       <c r="C30">
-        <v>2.461807318894701</v>
+        <v>2.4618073188947012</v>
       </c>
       <c r="D30">
         <v>9.980957649751991</v>
       </c>
       <c r="E30">
-        <v>-8.150304150385457</v>
+        <v>-8.1503041503854572</v>
       </c>
       <c r="F30">
-        <v>-0.0006326034063171004</v>
+        <v>-6.3260340631710044E-4</v>
       </c>
       <c r="G30">
-        <v>2.206937868393077</v>
+        <v>2.2069378683930769</v>
       </c>
       <c r="H30">
-        <v>-1.233092118130252</v>
+        <v>-1.2330921181302521</v>
       </c>
       <c r="I30">
         <v>-1.314266296544464</v>
       </c>
       <c r="J30">
-        <v>0.6871896406117988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.68718964061179877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.3218073188947</v>
+        <v>2.3218073188947002</v>
       </c>
       <c r="C31">
-        <v>5.19095764975197</v>
+        <v>5.1909576497519696</v>
       </c>
       <c r="D31">
-        <v>-6.480304150385512</v>
+        <v>-6.4803041503855123</v>
       </c>
       <c r="E31">
         <v>1.359367396593669</v>
       </c>
       <c r="F31">
-        <v>3.306937868393058</v>
+        <v>3.3069378683930579</v>
       </c>
       <c r="G31">
-        <v>-0.63309211813023</v>
+        <v>-0.63309211813023003</v>
       </c>
       <c r="H31">
         <v>-1.312092390567575</v>
@@ -1348,7 +1367,7 @@
         <v>0.6891273091171759</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1356,60 +1375,60 @@
         <v>-2.209042350248001</v>
       </c>
       <c r="C32">
-        <v>-1.580304150385469</v>
+        <v>-1.5803041503854689</v>
       </c>
       <c r="D32">
-        <v>3.459367396593679</v>
+        <v>3.4593673965936791</v>
       </c>
       <c r="E32">
-        <v>4.006937868393072</v>
+        <v>4.0069378683930719</v>
       </c>
       <c r="F32">
-        <v>-0.5330921181302579</v>
+        <v>-0.53309211813025792</v>
       </c>
       <c r="G32">
         <v>-1.194266296544459</v>
       </c>
       <c r="H32">
-        <v>0.7471896406117955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.74718964061179549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1.840304150385469</v>
+        <v>-1.8403041503854689</v>
       </c>
       <c r="C33">
-        <v>2.411488683553286</v>
+        <v>2.4114886835532858</v>
       </c>
       <c r="D33">
-        <v>3.163673203886142</v>
+        <v>3.1636732038861419</v>
       </c>
       <c r="E33">
-        <v>-0.8080921181302552</v>
+        <v>-0.80809211813025517</v>
       </c>
       <c r="F33">
         <v>-1.194266296544473</v>
       </c>
       <c r="G33">
-        <v>0.7396069183282994</v>
+        <v>0.73960691832829939</v>
       </c>
       <c r="H33">
         <v>0.153842895948372</v>
       </c>
       <c r="I33">
-        <v>0.2501890872883032</v>
+        <v>0.25018908728830319</v>
       </c>
       <c r="J33">
-        <v>-0.009555389810015302</v>
+        <v>-9.5553898100153023E-3</v>
       </c>
       <c r="K33">
-        <v>0.8265776002125492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.82657760021254922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1417,65 +1436,65 @@
         <v>-0.7406326034063262</v>
       </c>
       <c r="C34">
-        <v>2.39538184572016</v>
+        <v>2.3953818457201601</v>
       </c>
       <c r="D34">
-        <v>0.966907881869751</v>
+        <v>0.96690788186975096</v>
       </c>
       <c r="E34">
-        <v>-0.9882246039044738</v>
+        <v>-0.98822460390447375</v>
       </c>
       <c r="F34">
-        <v>0.9469416447868544</v>
+        <v>0.94694164478685439</v>
       </c>
       <c r="G34">
-        <v>0.2285275052539781</v>
+        <v>0.22852750525397811</v>
       </c>
       <c r="H34">
         <v>0.2998780799059883</v>
       </c>
       <c r="I34">
-        <v>0.03125855291726826</v>
+        <v>3.1258552917268263E-2</v>
       </c>
       <c r="J34">
-        <v>0.8592436660644955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.85924366606449554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.097457868393073</v>
+        <v>1.0974578683930729</v>
       </c>
       <c r="C35">
-        <v>0.4233178818697558</v>
+        <v>0.42331788186975577</v>
       </c>
       <c r="D35">
-        <v>0.1547337034555309</v>
+        <v>0.15473370345553089</v>
       </c>
       <c r="E35">
         <v>1.203649640611794</v>
       </c>
       <c r="F35">
-        <v>0.2516151035781544</v>
+        <v>0.25161510357815442</v>
       </c>
       <c r="G35">
-        <v>0.3175001443875122</v>
+        <v>0.31750014438751217</v>
       </c>
       <c r="H35">
-        <v>0.03275110738878939</v>
+        <v>3.2751107388789391E-2</v>
       </c>
       <c r="I35">
-        <v>0.8612761035472807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.86127610354728068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.323092118130242</v>
+        <v>-0.32309211813024202</v>
       </c>
       <c r="C36">
         <v>1.865733703455543</v>
@@ -1484,19 +1503,19 @@
         <v>1.847582543966432</v>
       </c>
       <c r="E36">
-        <v>0.2513274344176</v>
+        <v>0.25132743441760003</v>
       </c>
       <c r="F36">
         <v>0.3218253794872098</v>
       </c>
       <c r="G36">
-        <v>0.03045435555422921</v>
+        <v>3.045435555422921E-2</v>
       </c>
       <c r="H36">
         <v>0.8604183459774174</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1504,34 +1523,34 @@
         <v>-0.174266296544449</v>
       </c>
       <c r="C37">
-        <v>1.647189640611778</v>
+        <v>1.6471896406117781</v>
       </c>
       <c r="D37">
-        <v>1.424595103578154</v>
+        <v>1.4245951035781541</v>
       </c>
       <c r="E37">
         <v>1.030270144387512</v>
       </c>
       <c r="F37">
-        <v>0.3098511073887893</v>
+        <v>0.30985110738878929</v>
       </c>
       <c r="G37">
         <v>0.9253061035472806</v>
       </c>
       <c r="H37">
-        <v>0.5952267436446591</v>
+        <v>0.59522674364465911</v>
       </c>
       <c r="I37">
-        <v>0.2314402375649628</v>
+        <v>0.23144023756496279</v>
       </c>
       <c r="J37">
-        <v>0.3396176279974082</v>
+        <v>0.33961762799740819</v>
       </c>
       <c r="K37">
-        <v>0.4970636170015632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.49706361700156321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1542,28 +1561,28 @@
         <v>-0.2454048964218456</v>
       </c>
       <c r="D38">
-        <v>2.200270144387512</v>
+        <v>2.2002701443875119</v>
       </c>
       <c r="E38">
-        <v>1.349851107388789</v>
+        <v>1.3498511073887891</v>
       </c>
       <c r="F38">
         <v>1.245306103547281</v>
       </c>
       <c r="G38">
-        <v>0.8652267436446591</v>
+        <v>0.86522674364465912</v>
       </c>
       <c r="H38">
-        <v>0.3014402375649629</v>
+        <v>0.30144023756496291</v>
       </c>
       <c r="I38">
-        <v>0.3896176279974082</v>
+        <v>0.38961762799740818</v>
       </c>
       <c r="J38">
-        <v>0.5470636170015633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.54706361700156325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1571,10 +1590,10 @@
         <v>0.2298806514884979</v>
       </c>
       <c r="C39">
-        <v>0.8526683129551109</v>
+        <v>0.85266831295511092</v>
       </c>
       <c r="D39">
-        <v>0.6965152533949663</v>
+        <v>0.69651525339496634</v>
       </c>
       <c r="E39">
         <v>1.545191941255428</v>
@@ -1583,27 +1602,27 @@
         <v>1.225993306361975</v>
       </c>
       <c r="G39">
-        <v>0.7182674109717584</v>
+        <v>0.71826741097175839</v>
       </c>
       <c r="H39">
-        <v>0.6131542380653776</v>
+        <v>0.61315423806537761</v>
       </c>
       <c r="I39">
-        <v>0.6331128777533094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.63311287775330938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.2402701443875122</v>
+        <v>0.24027014438751221</v>
       </c>
       <c r="C40">
         <v>0.7703347161220313</v>
       </c>
       <c r="D40">
-        <v>1.835306103547281</v>
+        <v>1.8353061035472811</v>
       </c>
       <c r="E40">
         <v>1.375226743644659</v>
@@ -1612,48 +1631,48 @@
         <v>0.821187593955504</v>
       </c>
       <c r="G40">
-        <v>0.7472188330748641</v>
+        <v>0.74721883307486414</v>
       </c>
       <c r="H40">
-        <v>0.7070636170015632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.70706361700156317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.3601488926112106</v>
+        <v>-0.36014889261121058</v>
       </c>
       <c r="C41">
-        <v>0.2553061035472806</v>
+        <v>0.25530610354728062</v>
       </c>
       <c r="D41">
-        <v>-0.06477325635534092</v>
+        <v>-6.4773256355340925E-2</v>
       </c>
       <c r="E41">
-        <v>-0.01855976243503714</v>
+        <v>-1.8559762435037139E-2</v>
       </c>
       <c r="F41">
-        <v>0.6096176279974082</v>
+        <v>0.60961762799740815</v>
       </c>
       <c r="G41">
-        <v>0.7670636170015632</v>
+        <v>0.76706361700156322</v>
       </c>
       <c r="H41">
         <v>0.2964041604754924</v>
       </c>
       <c r="I41">
-        <v>0.5467620410109615</v>
+        <v>0.54676204101096149</v>
       </c>
       <c r="J41">
-        <v>0.3347871831659499</v>
+        <v>0.33478718316594991</v>
       </c>
       <c r="K41">
-        <v>0.6206497229122814</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.62064972291228138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1661,60 +1680,60 @@
         <v>0.1453061035472806</v>
       </c>
       <c r="C42">
-        <v>-0.05477325635534092</v>
+        <v>-5.4773256355340923E-2</v>
       </c>
       <c r="D42">
-        <v>0.05097186598095012</v>
+        <v>5.0971865980950118E-2</v>
       </c>
       <c r="E42">
-        <v>0.6813581175453611</v>
+        <v>0.68135811754536113</v>
       </c>
       <c r="F42">
-        <v>0.7891470860972862</v>
+        <v>0.78914708609728623</v>
       </c>
       <c r="G42">
-        <v>0.2057013640468817</v>
+        <v>0.20570136404688169</v>
       </c>
       <c r="H42">
-        <v>0.4324787717588673</v>
+        <v>0.43247877175886729</v>
       </c>
       <c r="I42">
         <v>0.1941599749288416</v>
       </c>
       <c r="J42">
-        <v>0.4451524432442894</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.44515244324428938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1273487862293673</v>
+        <v>0.12734878622936729</v>
       </c>
       <c r="C43">
-        <v>0.04630450333973575</v>
+        <v>4.630450333973575E-2</v>
       </c>
       <c r="D43">
-        <v>0.5849623173407428</v>
+        <v>0.58496231734074278</v>
       </c>
       <c r="E43">
-        <v>0.8484374385026132</v>
+        <v>0.84843743850261322</v>
       </c>
       <c r="F43">
-        <v>0.312800145126382</v>
+        <v>0.31280014512638199</v>
       </c>
       <c r="G43">
-        <v>0.4924727979357907</v>
+        <v>0.49247279793579068</v>
       </c>
       <c r="H43">
-        <v>0.1829770333935032</v>
+        <v>0.18297703339350321</v>
       </c>
       <c r="I43">
-        <v>0.4312815856628233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.43128158566282332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1722,172 +1741,172 @@
         <v>0.1020880707435432</v>
       </c>
       <c r="C44">
-        <v>0.3096176279974082</v>
+        <v>0.30961762799740822</v>
       </c>
       <c r="D44">
-        <v>0.7070636170015632</v>
+        <v>0.70706361700156317</v>
       </c>
       <c r="E44">
-        <v>0.2864041604754924</v>
+        <v>0.28640416047549239</v>
       </c>
       <c r="F44">
-        <v>0.5267620410109616</v>
+        <v>0.52676204101096158</v>
       </c>
       <c r="G44">
-        <v>0.2247871831659499</v>
+        <v>0.22478718316594989</v>
       </c>
       <c r="H44">
-        <v>0.5306497229122814</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.53064972291228141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.0503823720025918</v>
+        <v>-5.0382372002591803E-2</v>
       </c>
       <c r="C45">
-        <v>0.6070636170015632</v>
+        <v>0.60706361700156319</v>
       </c>
       <c r="D45">
-        <v>0.2664041604754924</v>
+        <v>0.26640416047549242</v>
       </c>
       <c r="E45">
-        <v>0.6279097355159999</v>
+        <v>0.62790973551599993</v>
       </c>
       <c r="F45">
-        <v>0.3979680775074187</v>
+        <v>0.39796807750741869</v>
       </c>
       <c r="G45">
-        <v>0.5813332769805371</v>
+        <v>0.58133327698053705</v>
       </c>
       <c r="H45">
-        <v>-0.07991706325214298</v>
+        <v>-7.9917063252142984E-2</v>
       </c>
       <c r="I45">
         <v>0.535526637811788</v>
       </c>
       <c r="J45">
-        <v>0.2150495036779461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.21504950367794609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3310636170015632</v>
+        <v>0.33106361700156323</v>
       </c>
       <c r="C46">
-        <v>0.08037550528413179</v>
+        <v>8.0375505284131787E-2</v>
       </c>
       <c r="D46">
-        <v>0.4669984892513961</v>
+        <v>0.46699848925139609</v>
       </c>
       <c r="E46">
-        <v>0.3339617829755114</v>
+        <v>0.33396178297551138</v>
       </c>
       <c r="F46">
-        <v>0.6407790808091178</v>
+        <v>0.64077908080911783</v>
       </c>
       <c r="G46">
-        <v>-0.01213374733938011</v>
+        <v>-1.2133747339380109E-2</v>
       </c>
       <c r="H46">
-        <v>0.5766911554241068</v>
+        <v>0.57669115542410676</v>
       </c>
       <c r="I46">
         <v>0.24</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.2961058799880114</v>
+        <v>-0.29610587998801141</v>
       </c>
       <c r="C47">
-        <v>0.2811199022592499</v>
+        <v>0.28111990225924988</v>
       </c>
       <c r="D47">
-        <v>0.4061437322588163</v>
+        <v>0.40614373225881628</v>
       </c>
       <c r="E47">
-        <v>0.7326419872114158</v>
+        <v>0.73264198721141582</v>
       </c>
       <c r="F47">
-        <v>0.03212331069211072</v>
+        <v>3.2123310692110718E-2</v>
       </c>
       <c r="G47">
-        <v>0.6272238950261231</v>
+        <v>0.62722389502612308</v>
       </c>
       <c r="H47">
-        <v>0.3087982760018804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.30879827600188042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.3250145629684917</v>
+        <v>0.32501456296849168</v>
       </c>
       <c r="C48">
         <v>0.3247871831659499</v>
       </c>
       <c r="D48">
-        <v>0.7206497229122815</v>
+        <v>0.72064972291228147</v>
       </c>
       <c r="E48">
-        <v>0.04831977022499523</v>
+        <v>4.8319770224995229E-2</v>
       </c>
       <c r="F48">
-        <v>0.6666911554241067</v>
+        <v>0.66669115542410673</v>
       </c>
       <c r="G48">
         <v>0.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1523883420589938</v>
+        <v>-0.15238834205899379</v>
       </c>
       <c r="C49">
-        <v>0.4106497229122814</v>
+        <v>0.41064972291228141</v>
       </c>
       <c r="D49">
-        <v>-0.09868022977500479</v>
+        <v>-9.8680229775004791E-2</v>
       </c>
       <c r="E49">
-        <v>0.6966911554241066</v>
+        <v>0.69669115542410665</v>
       </c>
       <c r="F49">
-        <v>0.4476495795507702</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.44764957955077023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.4148795034612291</v>
+        <v>0.41487950346122909</v>
       </c>
       <c r="C50">
-        <v>-0.2119161209897164</v>
+        <v>-0.21191612098971641</v>
       </c>
       <c r="D50">
-        <v>0.4271648845785767</v>
+        <v>0.42716488457857671</v>
       </c>
       <c r="E50">
         <v>0.1088966743764388</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1895,29 +1914,29 @@
         <v>-0.1722430723603913</v>
       </c>
       <c r="C51">
-        <v>0.4775315349050862</v>
+        <v>0.47753153490508621</v>
       </c>
       <c r="D51">
-        <v>0.1461563307127136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.14615633071271361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.32386998960715</v>
+        <v>0.32386998960715002</v>
       </c>
       <c r="C52">
-        <v>0.09547648014918764</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>9.5476480149187637E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0.0959495356205764</v>
+        <v>9.5949535620576398E-2</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_1_Output_Data/4_ifo_qoq_error_series/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921EDAA3B4D2B4D2C4CA5E5CB572D54549FA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB266DC0-3170-44AA-9D99-E380FF7DF87A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,25 +265,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +313,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,17 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,12 +595,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.18394495412842321</v>
+        <v>0.1839449541284232</v>
       </c>
       <c r="C2">
         <v>-1.303044651843698</v>
@@ -628,13 +609,13 @@
         <v>0.7957634757526395</v>
       </c>
       <c r="E2">
-        <v>0.87441229656420227</v>
+        <v>0.8744122965642023</v>
       </c>
       <c r="F2">
         <v>2.507941123023818</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -642,25 +623,25 @@
         <v>0.1457634757526623</v>
       </c>
       <c r="C3">
-        <v>0.77441229656419375</v>
+        <v>0.7744122965641937</v>
       </c>
       <c r="D3">
-        <v>2.4679411230238109</v>
+        <v>2.467941123023811</v>
       </c>
       <c r="E3">
-        <v>4.1257620109655297</v>
+        <v>4.12576201096553</v>
       </c>
       <c r="F3">
-        <v>-1.752140864044649E-2</v>
+        <v>-0.01752140864044649</v>
       </c>
       <c r="G3">
-        <v>-0.45303908420346711</v>
+        <v>-0.4530390842034671</v>
       </c>
       <c r="H3">
         <v>0.2404915850527668</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -668,19 +649,19 @@
         <v>1.20794112302382</v>
       </c>
       <c r="C4">
-        <v>3.1507620109655212</v>
+        <v>3.150762010965521</v>
       </c>
       <c r="D4">
-        <v>-0.71752140864043512</v>
+        <v>-0.7175214086404351</v>
       </c>
       <c r="E4">
-        <v>-1.0280390842034841</v>
+        <v>-1.028039084203484</v>
       </c>
       <c r="F4">
-        <v>-0.25950841494721888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.2595084149472189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -691,42 +672,42 @@
         <v>-0.5280390842034699</v>
       </c>
       <c r="D5">
-        <v>-0.30950841494723041</v>
+        <v>-0.3095084149472304</v>
       </c>
       <c r="E5">
-        <v>-0.46135155656797061</v>
+        <v>-0.4613515565679706</v>
       </c>
       <c r="F5">
-        <v>-2.1820917983446271</v>
+        <v>-2.182091798344627</v>
       </c>
       <c r="G5">
-        <v>-0.44801616458486881</v>
+        <v>-0.4480161645848688</v>
       </c>
       <c r="H5">
-        <v>-0.11479708162333919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1147970816233392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.49049158505275259</v>
+        <v>0.4904915850527526</v>
       </c>
       <c r="C6">
-        <v>0.25864844343204257</v>
+        <v>0.2586484434320426</v>
       </c>
       <c r="D6">
         <v>-1.982091798344624</v>
       </c>
       <c r="E6">
-        <v>-0.49801616458486597</v>
+        <v>-0.498016164584866</v>
       </c>
       <c r="F6">
-        <v>-6.479708162335629E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.06479708162335629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -737,114 +718,114 @@
         <v>-0.198016164584883</v>
       </c>
       <c r="D7">
-        <v>-6.479708162335629E-2</v>
+        <v>-0.06479708162335629</v>
       </c>
       <c r="E7">
         <v>-1.199182264219526</v>
       </c>
       <c r="F7">
-        <v>0.20577769625826081</v>
+        <v>0.2057776962582608</v>
       </c>
       <c r="G7">
-        <v>-0.15301810865190041</v>
+        <v>-0.1530181086519004</v>
       </c>
       <c r="H7">
-        <v>0.58186778212240531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5818677821224053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.43520291837666092</v>
+        <v>0.4352029183766609</v>
       </c>
       <c r="C8">
-        <v>-1.1991822642195089</v>
+        <v>-1.199182264219509</v>
       </c>
       <c r="D8">
-        <v>0.28077769625825799</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="E8">
-        <v>-3.01810865190888E-3</v>
+        <v>-0.00301810865190888</v>
       </c>
       <c r="F8">
-        <v>0.68186778212239962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6818677821223996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.28077769625825799</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="C9">
-        <v>-3.01810865190888E-3</v>
+        <v>-0.00301810865190888</v>
       </c>
       <c r="D9">
         <v>0.7818677821223996</v>
       </c>
       <c r="E9">
-        <v>8.9842397740728441E-2</v>
+        <v>0.08984239774072844</v>
       </c>
       <c r="F9">
-        <v>0.32929074174335732</v>
+        <v>0.3292907417433573</v>
       </c>
       <c r="G9">
-        <v>0.36601871850252798</v>
+        <v>0.366018718502528</v>
       </c>
       <c r="H9">
-        <v>1.1925127928898429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.192512792889843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.8132217877600419E-2</v>
+        <v>-0.01813221787760042</v>
       </c>
       <c r="C10">
-        <v>-0.41015760225927161</v>
+        <v>-0.4101576022592716</v>
       </c>
       <c r="D10">
-        <v>-7.0709258256642704E-2</v>
+        <v>-0.0707092582566427</v>
       </c>
       <c r="E10">
-        <v>6.6018718502527995E-2</v>
+        <v>0.066018718502528</v>
       </c>
       <c r="F10">
-        <v>0.89251279288984353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8925127928898435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.17070925825664271</v>
+        <v>-0.1707092582566427</v>
       </c>
       <c r="C11">
-        <v>-0.13398128149747199</v>
+        <v>-0.133981281497472</v>
       </c>
       <c r="D11">
-        <v>0.89251279288984353</v>
+        <v>0.8925127928898435</v>
       </c>
       <c r="E11">
-        <v>0.33671458276827831</v>
+        <v>0.3367145827682783</v>
       </c>
       <c r="F11">
-        <v>-0.32143565695734261</v>
+        <v>-0.3214356569573426</v>
       </c>
       <c r="G11">
-        <v>0.17767929089444051</v>
+        <v>0.1776792908944405</v>
       </c>
       <c r="H11">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -855,16 +836,16 @@
         <v>0.1367145827682783</v>
       </c>
       <c r="D12">
-        <v>-0.42143565695734259</v>
+        <v>-0.4214356569573426</v>
       </c>
       <c r="E12">
-        <v>7.7679290894440534E-2</v>
+        <v>0.07767929089444053</v>
       </c>
       <c r="F12">
         <v>0.1162427487728631</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -872,96 +853,96 @@
         <v>0.1785643430426489</v>
       </c>
       <c r="C13">
-        <v>9.7679290894442217E-2</v>
+        <v>0.09767929089444222</v>
       </c>
       <c r="D13">
-        <v>1.6242748772868802E-2</v>
+        <v>0.0162427487728688</v>
       </c>
       <c r="E13">
-        <v>-0.41792318634423481</v>
+        <v>-0.4179231863442348</v>
       </c>
       <c r="F13">
         <v>0.6108782057348251</v>
       </c>
       <c r="G13">
-        <v>0.43376230128689608</v>
+        <v>0.4337623012868961</v>
       </c>
       <c r="H13">
-        <v>-0.19969742813919239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1996974281391924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-8.3757251227136897E-2</v>
+        <v>-0.0837572512271369</v>
       </c>
       <c r="C14">
-        <v>-0.31792318634424038</v>
+        <v>-0.3179231863442404</v>
       </c>
       <c r="D14">
-        <v>0.66087820573483647</v>
+        <v>0.6608782057348365</v>
       </c>
       <c r="E14">
-        <v>0.53376230128691027</v>
+        <v>0.5337623012869103</v>
       </c>
       <c r="F14">
-        <v>-9.9697428139178257E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.09969742813917826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.46087820573481941</v>
+        <v>0.4608782057348194</v>
       </c>
       <c r="C15">
-        <v>0.33376230128691597</v>
+        <v>0.333762301286916</v>
       </c>
       <c r="D15">
-        <v>-0.24969742813918969</v>
+        <v>-0.2496974281391897</v>
       </c>
       <c r="E15">
-        <v>0.24769953051643631</v>
+        <v>0.2476995305164363</v>
       </c>
       <c r="F15">
-        <v>8.136257582828943E-2</v>
+        <v>0.08136257582828943</v>
       </c>
       <c r="G15">
-        <v>0.20407359226911531</v>
+        <v>0.2040735922691153</v>
       </c>
       <c r="H15">
-        <v>0.25130732882425549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2513073288242555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.49969742813917539</v>
+        <v>-0.4996974281391754</v>
       </c>
       <c r="C16">
-        <v>0.14769953051642781</v>
+        <v>0.1476995305164278</v>
       </c>
       <c r="D16">
-        <v>-1.86374241717191E-2</v>
+        <v>-0.0186374241717191</v>
       </c>
       <c r="E16">
         <v>0.1040735922691067</v>
       </c>
       <c r="F16">
-        <v>0.15130732882424699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.151307328824247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.18136257582828369</v>
+        <v>0.1813625758282837</v>
       </c>
       <c r="C17">
         <v>0.1040735922691067</v>
@@ -970,90 +951,90 @@
         <v>0.131307328824251</v>
       </c>
       <c r="E17">
-        <v>-0.26531140269820058</v>
+        <v>-0.2653114026982006</v>
       </c>
       <c r="F17">
-        <v>-1.1259367574480541E-2</v>
+        <v>-0.01125936757448054</v>
       </c>
       <c r="G17">
         <v>0.2088650222990921</v>
       </c>
       <c r="H17">
-        <v>-2.6923426287576099E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.0269234262875761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.20130732882424421</v>
+        <v>0.2013073288242442</v>
       </c>
       <c r="C18">
-        <v>-0.21631140269819399</v>
+        <v>-0.216311402698194</v>
       </c>
       <c r="D18">
-        <v>3.7740632425526062E-2</v>
+        <v>0.03774063242552606</v>
       </c>
       <c r="E18">
-        <v>0.25786502229909869</v>
+        <v>0.2578650222990987</v>
       </c>
       <c r="F18">
-        <v>2.2076573712430492E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.02207657371243049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-7.1259367574482813E-2</v>
+        <v>-0.07125936757448281</v>
       </c>
       <c r="C19">
-        <v>0.24886502229908411</v>
+        <v>0.2488650222990841</v>
       </c>
       <c r="D19">
-        <v>1.307657371241594E-2</v>
+        <v>0.01307657371241594</v>
       </c>
       <c r="E19">
-        <v>-0.12589618375837669</v>
+        <v>-0.1258961837583767</v>
       </c>
       <c r="F19">
-        <v>-0.13645671401769771</v>
+        <v>-0.1364567140176977</v>
       </c>
       <c r="G19">
-        <v>-0.34417582417582782</v>
+        <v>-0.3441758241758278</v>
       </c>
       <c r="H19">
         <v>-0.126966924700923</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2.3076573712406789E-2</v>
+        <v>0.02307657371240679</v>
       </c>
       <c r="C20">
         <v>-0.2058961837583608</v>
       </c>
       <c r="D20">
-        <v>-0.21645671401768191</v>
+        <v>-0.2164567140176819</v>
       </c>
       <c r="E20">
         <v>-0.4241758241758119</v>
       </c>
       <c r="F20">
-        <v>-0.20696692470090719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.2069669247009072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8.3543285982301096E-2</v>
+        <v>0.0835432859823011</v>
       </c>
       <c r="C21">
         <v>-0.2241758241758233</v>
@@ -1065,213 +1046,213 @@
         <v>0.1527192445571372</v>
       </c>
       <c r="F21">
-        <v>-1.58488927486683E-3</v>
+        <v>-0.00158488927486683</v>
       </c>
       <c r="G21">
-        <v>0.64884153194431637</v>
+        <v>0.6488415319443164</v>
       </c>
       <c r="H21">
         <v>0.4326764833261072</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-5.6966924700901478E-2</v>
+        <v>-0.05696692470090148</v>
       </c>
       <c r="C22">
-        <v>0.20271924455713439</v>
+        <v>0.2027192445571344</v>
       </c>
       <c r="D22">
-        <v>4.8415110725130377E-2</v>
+        <v>0.04841511072513038</v>
       </c>
       <c r="E22">
-        <v>0.69884153194431353</v>
+        <v>0.6988415319443135</v>
       </c>
       <c r="F22">
-        <v>0.48267648332610452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4826764833261045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.40271924455713731</v>
+        <v>0.4027192445571373</v>
       </c>
       <c r="C23">
-        <v>0.16341511072515369</v>
+        <v>0.1634151107251537</v>
       </c>
       <c r="D23">
-        <v>0.74784153194433434</v>
+        <v>0.7478415319443343</v>
       </c>
       <c r="E23">
-        <v>0.48267648332610452</v>
+        <v>0.4826764833261045</v>
       </c>
       <c r="F23">
         <v>0.1756473542911566</v>
       </c>
       <c r="G23">
-        <v>0.57468957146856792</v>
+        <v>0.5746895714685679</v>
       </c>
       <c r="H23">
-        <v>0.41584065831305528</v>
+        <v>0.4158406583130553</v>
       </c>
       <c r="I23">
-        <v>0.47200447928329942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4720044792832994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.15158488927487249</v>
+        <v>-0.1515848892748725</v>
       </c>
       <c r="C24">
-        <v>0.59884153194433343</v>
+        <v>0.5988415319443334</v>
       </c>
       <c r="D24">
-        <v>0.38267648332612442</v>
+        <v>0.3826764833261244</v>
       </c>
       <c r="E24">
         <v>0.1246473542911689</v>
       </c>
       <c r="F24">
-        <v>0.57468957146856792</v>
+        <v>0.5746895714685679</v>
       </c>
       <c r="G24">
-        <v>0.36484065831308182</v>
+        <v>0.3648406583130818</v>
       </c>
       <c r="H24">
-        <v>0.42100447928332591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4210044792833259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.69884153194429932</v>
+        <v>0.6988415319442993</v>
       </c>
       <c r="C25">
-        <v>0.48267648332610452</v>
+        <v>0.4826764833261045</v>
       </c>
       <c r="D25">
         <v>0.1246473542911689</v>
       </c>
       <c r="E25">
-        <v>0.57468957146856792</v>
+        <v>0.5746895714685679</v>
       </c>
       <c r="F25">
-        <v>0.36484065831308182</v>
+        <v>0.3648406583130818</v>
       </c>
       <c r="G25">
-        <v>0.32200447928332221</v>
+        <v>0.3220044792833222</v>
       </c>
       <c r="H25">
-        <v>2.5218073188946888</v>
+        <v>2.521807318894689</v>
       </c>
       <c r="I25">
-        <v>9.9909576497519819</v>
+        <v>9.990957649751982</v>
       </c>
       <c r="J25">
-        <v>-8.1803041503854867</v>
+        <v>-8.180304150385487</v>
       </c>
       <c r="K25">
-        <v>-4.063260340633762E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.04063260340633762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.18267648332611869</v>
+        <v>0.1826764833261187</v>
       </c>
       <c r="C26">
-        <v>-2.4352645708837661E-2</v>
+        <v>-0.02435264570883766</v>
       </c>
       <c r="D26">
-        <v>0.47468957146858209</v>
+        <v>0.4746895714685821</v>
       </c>
       <c r="E26">
-        <v>0.21584065831306951</v>
+        <v>0.2158406583130695</v>
       </c>
       <c r="F26">
-        <v>0.27200447928331362</v>
+        <v>0.2720044792833136</v>
       </c>
       <c r="G26">
-        <v>2.5218073188947061</v>
+        <v>2.521807318894706</v>
       </c>
       <c r="H26">
-        <v>9.9909576497519996</v>
+        <v>9.990957649752</v>
       </c>
       <c r="I26">
         <v>-8.180304150385469</v>
       </c>
       <c r="J26">
-        <v>-4.0632603406320522E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.32435264570884342</v>
+        <v>-0.3243526457088434</v>
       </c>
       <c r="C27">
-        <v>0.37468957146856502</v>
+        <v>0.374689571468565</v>
       </c>
       <c r="D27">
-        <v>0.26584065831307813</v>
+        <v>0.2658406583130781</v>
       </c>
       <c r="E27">
-        <v>0.32200447928332221</v>
+        <v>0.3220044792833222</v>
       </c>
       <c r="F27">
-        <v>2.5718073188947139</v>
+        <v>2.571807318894714</v>
       </c>
       <c r="G27">
-        <v>10.040957649752009</v>
+        <v>10.04095764975201</v>
       </c>
       <c r="H27">
-        <v>-8.1303041503854612</v>
+        <v>-8.130304150385461</v>
       </c>
       <c r="I27">
-        <v>9.3673965936880155E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.009367396593688015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-2.5310428531417892E-2</v>
+        <v>-0.02531042853141789</v>
       </c>
       <c r="C28">
-        <v>0.21584065831306951</v>
+        <v>0.2158406583130695</v>
       </c>
       <c r="D28">
-        <v>0.27200447928331362</v>
+        <v>0.2720044792833136</v>
       </c>
       <c r="E28">
-        <v>2.5218073188947061</v>
+        <v>2.521807318894706</v>
       </c>
       <c r="F28">
-        <v>9.9909576497519996</v>
+        <v>9.990957649752</v>
       </c>
       <c r="G28">
         <v>-8.180304150385469</v>
       </c>
       <c r="H28">
-        <v>-4.0632603406320522E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1279,86 +1260,86 @@
         <v>-0.1841593416869248</v>
       </c>
       <c r="C29">
-        <v>7.2004479283307929E-2</v>
+        <v>0.07200447928330793</v>
       </c>
       <c r="D29">
-        <v>2.4718073188947058</v>
+        <v>2.471807318894706</v>
       </c>
       <c r="E29">
-        <v>10.039957649751999</v>
+        <v>10.039957649752</v>
       </c>
       <c r="F29">
-        <v>-8.1313041503854659</v>
+        <v>-8.131304150385466</v>
       </c>
       <c r="G29">
-        <v>8.3673965936832961E-3</v>
+        <v>0.008367396593683296</v>
       </c>
       <c r="H29">
-        <v>2.1559378683930759</v>
+        <v>2.155937868393076</v>
       </c>
       <c r="I29">
         <v>-1.284092118130254</v>
       </c>
       <c r="J29">
-        <v>-1.3452662965444551</v>
+        <v>-1.345266296544455</v>
       </c>
       <c r="K29">
-        <v>0.69618964061179922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6961896406117992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>5.2004479283354541E-2</v>
+        <v>0.05200447928335454</v>
       </c>
       <c r="C30">
-        <v>2.4618073188947012</v>
+        <v>2.461807318894701</v>
       </c>
       <c r="D30">
         <v>9.980957649751991</v>
       </c>
       <c r="E30">
-        <v>-8.1503041503854572</v>
+        <v>-8.150304150385457</v>
       </c>
       <c r="F30">
-        <v>-6.3260340631710044E-4</v>
+        <v>-0.0006326034063171004</v>
       </c>
       <c r="G30">
-        <v>2.2069378683930769</v>
+        <v>2.206937868393077</v>
       </c>
       <c r="H30">
-        <v>-1.2330921181302521</v>
+        <v>-1.233092118130252</v>
       </c>
       <c r="I30">
         <v>-1.314266296544464</v>
       </c>
       <c r="J30">
-        <v>0.68718964061179877</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6871896406117988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.3218073188947002</v>
+        <v>2.3218073188947</v>
       </c>
       <c r="C31">
-        <v>5.1909576497519696</v>
+        <v>5.19095764975197</v>
       </c>
       <c r="D31">
-        <v>-6.4803041503855123</v>
+        <v>-6.480304150385512</v>
       </c>
       <c r="E31">
         <v>1.359367396593669</v>
       </c>
       <c r="F31">
-        <v>3.3069378683930579</v>
+        <v>3.306937868393058</v>
       </c>
       <c r="G31">
-        <v>-0.63309211813023003</v>
+        <v>-0.63309211813023</v>
       </c>
       <c r="H31">
         <v>-1.312092390567575</v>
@@ -1367,7 +1348,7 @@
         <v>0.6891273091171759</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1375,60 +1356,60 @@
         <v>-2.209042350248001</v>
       </c>
       <c r="C32">
-        <v>-1.5803041503854689</v>
+        <v>-1.580304150385469</v>
       </c>
       <c r="D32">
-        <v>3.4593673965936791</v>
+        <v>3.459367396593679</v>
       </c>
       <c r="E32">
-        <v>4.0069378683930719</v>
+        <v>4.006937868393072</v>
       </c>
       <c r="F32">
-        <v>-0.53309211813025792</v>
+        <v>-0.5330921181302579</v>
       </c>
       <c r="G32">
         <v>-1.194266296544459</v>
       </c>
       <c r="H32">
-        <v>0.74718964061179549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7471896406117955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1.8403041503854689</v>
+        <v>-1.840304150385469</v>
       </c>
       <c r="C33">
-        <v>2.4114886835532858</v>
+        <v>2.411488683553286</v>
       </c>
       <c r="D33">
-        <v>3.1636732038861419</v>
+        <v>3.163673203886142</v>
       </c>
       <c r="E33">
-        <v>-0.80809211813025517</v>
+        <v>-0.8080921181302552</v>
       </c>
       <c r="F33">
         <v>-1.194266296544473</v>
       </c>
       <c r="G33">
-        <v>0.73960691832829939</v>
+        <v>0.7396069183282994</v>
       </c>
       <c r="H33">
         <v>0.153842895948372</v>
       </c>
       <c r="I33">
-        <v>0.25018908728830319</v>
+        <v>0.2501890872883032</v>
       </c>
       <c r="J33">
-        <v>-9.5553898100153023E-3</v>
+        <v>-0.009555389810015302</v>
       </c>
       <c r="K33">
-        <v>0.82657760021254922</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8265776002125492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1436,65 +1417,65 @@
         <v>-0.7406326034063262</v>
       </c>
       <c r="C34">
-        <v>2.3953818457201601</v>
+        <v>2.39538184572016</v>
       </c>
       <c r="D34">
-        <v>0.96690788186975096</v>
+        <v>0.966907881869751</v>
       </c>
       <c r="E34">
-        <v>-0.98822460390447375</v>
+        <v>-0.9882246039044738</v>
       </c>
       <c r="F34">
-        <v>0.94694164478685439</v>
+        <v>0.9469416447868544</v>
       </c>
       <c r="G34">
-        <v>0.22852750525397811</v>
+        <v>0.2285275052539781</v>
       </c>
       <c r="H34">
         <v>0.2998780799059883</v>
       </c>
       <c r="I34">
-        <v>3.1258552917268263E-2</v>
+        <v>0.03125855291726826</v>
       </c>
       <c r="J34">
-        <v>0.85924366606449554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8592436660644955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.0974578683930729</v>
+        <v>1.097457868393073</v>
       </c>
       <c r="C35">
-        <v>0.42331788186975577</v>
+        <v>0.4233178818697558</v>
       </c>
       <c r="D35">
-        <v>0.15473370345553089</v>
+        <v>0.1547337034555309</v>
       </c>
       <c r="E35">
         <v>1.203649640611794</v>
       </c>
       <c r="F35">
-        <v>0.25161510357815442</v>
+        <v>0.2516151035781544</v>
       </c>
       <c r="G35">
-        <v>0.31750014438751217</v>
+        <v>0.3175001443875122</v>
       </c>
       <c r="H35">
-        <v>3.2751107388789391E-2</v>
+        <v>0.03275110738878939</v>
       </c>
       <c r="I35">
-        <v>0.86127610354728068</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8612761035472807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.32309211813024202</v>
+        <v>-0.323092118130242</v>
       </c>
       <c r="C36">
         <v>1.865733703455543</v>
@@ -1503,19 +1484,19 @@
         <v>1.847582543966432</v>
       </c>
       <c r="E36">
-        <v>0.25132743441760003</v>
+        <v>0.2513274344176</v>
       </c>
       <c r="F36">
         <v>0.3218253794872098</v>
       </c>
       <c r="G36">
-        <v>3.045435555422921E-2</v>
+        <v>0.03045435555422921</v>
       </c>
       <c r="H36">
         <v>0.8604183459774174</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1523,34 +1504,34 @@
         <v>-0.174266296544449</v>
       </c>
       <c r="C37">
-        <v>1.6471896406117781</v>
+        <v>1.647189640611778</v>
       </c>
       <c r="D37">
-        <v>1.4245951035781541</v>
+        <v>1.424595103578154</v>
       </c>
       <c r="E37">
         <v>1.030270144387512</v>
       </c>
       <c r="F37">
-        <v>0.30985110738878929</v>
+        <v>0.3098511073887893</v>
       </c>
       <c r="G37">
         <v>0.9253061035472806</v>
       </c>
       <c r="H37">
-        <v>0.59522674364465911</v>
+        <v>0.5952267436446591</v>
       </c>
       <c r="I37">
-        <v>0.23144023756496279</v>
+        <v>0.2314402375649628</v>
       </c>
       <c r="J37">
-        <v>0.33961762799740819</v>
+        <v>0.3396176279974082</v>
       </c>
       <c r="K37">
-        <v>0.49706361700156321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4970636170015632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1561,28 +1542,28 @@
         <v>-0.2454048964218456</v>
       </c>
       <c r="D38">
-        <v>2.2002701443875119</v>
+        <v>2.200270144387512</v>
       </c>
       <c r="E38">
-        <v>1.3498511073887891</v>
+        <v>1.349851107388789</v>
       </c>
       <c r="F38">
         <v>1.245306103547281</v>
       </c>
       <c r="G38">
-        <v>0.86522674364465912</v>
+        <v>0.8652267436446591</v>
       </c>
       <c r="H38">
-        <v>0.30144023756496291</v>
+        <v>0.3014402375649629</v>
       </c>
       <c r="I38">
-        <v>0.38961762799740818</v>
+        <v>0.3896176279974082</v>
       </c>
       <c r="J38">
-        <v>0.54706361700156325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5470636170015633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1590,10 +1571,10 @@
         <v>0.2298806514884979</v>
       </c>
       <c r="C39">
-        <v>0.85266831295511092</v>
+        <v>0.8526683129551109</v>
       </c>
       <c r="D39">
-        <v>0.69651525339496634</v>
+        <v>0.6965152533949663</v>
       </c>
       <c r="E39">
         <v>1.545191941255428</v>
@@ -1602,27 +1583,27 @@
         <v>1.225993306361975</v>
       </c>
       <c r="G39">
-        <v>0.71826741097175839</v>
+        <v>0.7182674109717584</v>
       </c>
       <c r="H39">
-        <v>0.61315423806537761</v>
+        <v>0.6131542380653776</v>
       </c>
       <c r="I39">
-        <v>0.63311287775330938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6331128777533094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.24027014438751221</v>
+        <v>0.2402701443875122</v>
       </c>
       <c r="C40">
         <v>0.7703347161220313</v>
       </c>
       <c r="D40">
-        <v>1.8353061035472811</v>
+        <v>1.835306103547281</v>
       </c>
       <c r="E40">
         <v>1.375226743644659</v>
@@ -1631,48 +1612,48 @@
         <v>0.821187593955504</v>
       </c>
       <c r="G40">
-        <v>0.74721883307486414</v>
+        <v>0.7472188330748641</v>
       </c>
       <c r="H40">
-        <v>0.70706361700156317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7070636170015632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.36014889261121058</v>
+        <v>-0.3601488926112106</v>
       </c>
       <c r="C41">
-        <v>0.25530610354728062</v>
+        <v>0.2553061035472806</v>
       </c>
       <c r="D41">
-        <v>-6.4773256355340925E-2</v>
+        <v>-0.06477325635534092</v>
       </c>
       <c r="E41">
-        <v>-1.8559762435037139E-2</v>
+        <v>-0.01855976243503714</v>
       </c>
       <c r="F41">
-        <v>0.60961762799740815</v>
+        <v>0.6096176279974082</v>
       </c>
       <c r="G41">
-        <v>0.76706361700156322</v>
+        <v>0.7670636170015632</v>
       </c>
       <c r="H41">
         <v>0.2964041604754924</v>
       </c>
       <c r="I41">
-        <v>0.54676204101096149</v>
+        <v>0.5467620410109615</v>
       </c>
       <c r="J41">
-        <v>0.33478718316594991</v>
+        <v>0.3347871831659499</v>
       </c>
       <c r="K41">
-        <v>0.62064972291228138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.6206497229122814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1680,60 +1661,60 @@
         <v>0.1453061035472806</v>
       </c>
       <c r="C42">
-        <v>-5.4773256355340923E-2</v>
+        <v>-0.05477325635534092</v>
       </c>
       <c r="D42">
-        <v>5.0971865980950118E-2</v>
+        <v>0.05097186598095012</v>
       </c>
       <c r="E42">
-        <v>0.68135811754536113</v>
+        <v>0.6813581175453611</v>
       </c>
       <c r="F42">
-        <v>0.78914708609728623</v>
+        <v>0.7891470860972862</v>
       </c>
       <c r="G42">
-        <v>0.20570136404688169</v>
+        <v>0.2057013640468817</v>
       </c>
       <c r="H42">
-        <v>0.43247877175886729</v>
+        <v>0.4324787717588673</v>
       </c>
       <c r="I42">
         <v>0.1941599749288416</v>
       </c>
       <c r="J42">
-        <v>0.44515244324428938</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4451524432442894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.12734878622936729</v>
+        <v>0.1273487862293673</v>
       </c>
       <c r="C43">
-        <v>4.630450333973575E-2</v>
+        <v>0.04630450333973575</v>
       </c>
       <c r="D43">
-        <v>0.58496231734074278</v>
+        <v>0.5849623173407428</v>
       </c>
       <c r="E43">
-        <v>0.84843743850261322</v>
+        <v>0.8484374385026132</v>
       </c>
       <c r="F43">
-        <v>0.31280014512638199</v>
+        <v>0.312800145126382</v>
       </c>
       <c r="G43">
-        <v>0.49247279793579068</v>
+        <v>0.4924727979357907</v>
       </c>
       <c r="H43">
-        <v>0.18297703339350321</v>
+        <v>0.1829770333935032</v>
       </c>
       <c r="I43">
-        <v>0.43128158566282332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4312815856628233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1741,172 +1722,172 @@
         <v>0.1020880707435432</v>
       </c>
       <c r="C44">
-        <v>0.30961762799740822</v>
+        <v>0.3096176279974082</v>
       </c>
       <c r="D44">
-        <v>0.70706361700156317</v>
+        <v>0.7070636170015632</v>
       </c>
       <c r="E44">
-        <v>0.28640416047549239</v>
+        <v>0.2864041604754924</v>
       </c>
       <c r="F44">
-        <v>0.52676204101096158</v>
+        <v>0.5267620410109616</v>
       </c>
       <c r="G44">
-        <v>0.22478718316594989</v>
+        <v>0.2247871831659499</v>
       </c>
       <c r="H44">
-        <v>0.53064972291228141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5306497229122814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-5.0382372002591803E-2</v>
+        <v>-0.0503823720025918</v>
       </c>
       <c r="C45">
-        <v>0.60706361700156319</v>
+        <v>0.6070636170015632</v>
       </c>
       <c r="D45">
-        <v>0.26640416047549242</v>
+        <v>0.2664041604754924</v>
       </c>
       <c r="E45">
-        <v>0.62790973551599993</v>
+        <v>0.6279097355159999</v>
       </c>
       <c r="F45">
-        <v>0.39796807750741869</v>
+        <v>0.3979680775074187</v>
       </c>
       <c r="G45">
-        <v>0.58133327698053705</v>
+        <v>0.5813332769805371</v>
       </c>
       <c r="H45">
-        <v>-7.9917063252142984E-2</v>
+        <v>-0.07991706325214298</v>
       </c>
       <c r="I45">
         <v>0.535526637811788</v>
       </c>
       <c r="J45">
-        <v>0.21504950367794609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2150495036779461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.33106361700156323</v>
+        <v>0.3310636170015632</v>
       </c>
       <c r="C46">
-        <v>8.0375505284131787E-2</v>
+        <v>0.08037550528413179</v>
       </c>
       <c r="D46">
-        <v>0.46699848925139609</v>
+        <v>0.4669984892513961</v>
       </c>
       <c r="E46">
-        <v>0.33396178297551138</v>
+        <v>0.3339617829755114</v>
       </c>
       <c r="F46">
-        <v>0.64077908080911783</v>
+        <v>0.6407790808091178</v>
       </c>
       <c r="G46">
-        <v>-1.2133747339380109E-2</v>
+        <v>-0.01213374733938011</v>
       </c>
       <c r="H46">
-        <v>0.57669115542410676</v>
+        <v>0.5766911554241068</v>
       </c>
       <c r="I46">
         <v>0.24</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.29610587998801141</v>
+        <v>-0.2961058799880114</v>
       </c>
       <c r="C47">
-        <v>0.28111990225924988</v>
+        <v>0.2811199022592499</v>
       </c>
       <c r="D47">
-        <v>0.40614373225881628</v>
+        <v>0.4061437322588163</v>
       </c>
       <c r="E47">
-        <v>0.73264198721141582</v>
+        <v>0.7326419872114158</v>
       </c>
       <c r="F47">
-        <v>3.2123310692110718E-2</v>
+        <v>0.03212331069211072</v>
       </c>
       <c r="G47">
-        <v>0.62722389502612308</v>
+        <v>0.6272238950261231</v>
       </c>
       <c r="H47">
-        <v>0.30879827600188042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3087982760018804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.32501456296849168</v>
+        <v>0.3250145629684917</v>
       </c>
       <c r="C48">
         <v>0.3247871831659499</v>
       </c>
       <c r="D48">
-        <v>0.72064972291228147</v>
+        <v>0.7206497229122815</v>
       </c>
       <c r="E48">
-        <v>4.8319770224995229E-2</v>
+        <v>0.04831977022499523</v>
       </c>
       <c r="F48">
-        <v>0.66669115542410673</v>
+        <v>0.6666911554241067</v>
       </c>
       <c r="G48">
         <v>0.32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.15238834205899379</v>
+        <v>-0.1523883420589938</v>
       </c>
       <c r="C49">
-        <v>0.41064972291228141</v>
+        <v>0.4106497229122814</v>
       </c>
       <c r="D49">
-        <v>-9.8680229775004791E-2</v>
+        <v>-0.09868022977500479</v>
       </c>
       <c r="E49">
-        <v>0.69669115542410665</v>
+        <v>0.6966911554241066</v>
       </c>
       <c r="F49">
-        <v>0.44764957955077023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0.41487950346122909</v>
+        <v>0.4148795034612291</v>
       </c>
       <c r="C50">
-        <v>-0.21191612098971641</v>
+        <v>-0.2119161209897164</v>
       </c>
       <c r="D50">
-        <v>0.42716488457857671</v>
+        <v>0.4271648845785767</v>
       </c>
       <c r="E50">
         <v>0.1088966743764388</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1914,29 +1895,29 @@
         <v>-0.1722430723603913</v>
       </c>
       <c r="C51">
-        <v>0.47753153490508621</v>
+        <v>0.4775315349050862</v>
       </c>
       <c r="D51">
-        <v>0.14615633071271361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.32386998960715002</v>
+        <v>0.32386998960715</v>
       </c>
       <c r="C52">
-        <v>9.5476480149187637E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>9.5949535620576398E-2</v>
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series/ifo_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-08-22 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-11-25 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>0.0959495356205764</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
